--- a/tests/data/summary_stats.xlsx
+++ b/tests/data/summary_stats.xlsx
@@ -447,22 +447,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.8989300411522642</v>
+        <v>1.013292181069959</v>
       </c>
       <c r="D2">
-        <v>6.252181069958859</v>
+        <v>5.968786008230466</v>
       </c>
       <c r="E2">
-        <v>0.5132529441592365</v>
+        <v>0.5953422158493404</v>
       </c>
       <c r="F2">
-        <v>9.567735170012789</v>
+        <v>9.203870610757361</v>
       </c>
       <c r="G2">
-        <v>0.1915974366617081</v>
+        <v>0.00177788447410975</v>
       </c>
       <c r="H2">
-        <v>499.3890768034377</v>
+        <v>313.6771494400738</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -473,22 +473,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2.566919191919193</v>
+        <v>5.225213675213675</v>
       </c>
       <c r="D3">
-        <v>7.480808080808081</v>
+        <v>9.486324786324788</v>
       </c>
       <c r="E3">
-        <v>1.044385408163225</v>
+        <v>0.9241298833265058</v>
       </c>
       <c r="F3">
-        <v>30.33532670799015</v>
+        <v>14.39553548972865</v>
       </c>
       <c r="G3">
-        <v>0.1874338713503914</v>
+        <v>0.00252211414904932</v>
       </c>
       <c r="H3">
-        <v>69.81732006839894</v>
+        <v>62.9078289488071</v>
       </c>
     </row>
   </sheetData>
@@ -541,22 +541,22 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1.565972222222224</v>
+        <v>1.650531045751636</v>
       </c>
       <c r="E2">
-        <v>6.772140522875823</v>
+        <v>6.546486928104579</v>
       </c>
       <c r="F2">
-        <v>0.6281494734143215</v>
+        <v>0.6840846922039171</v>
       </c>
       <c r="G2">
-        <v>7.436949464255736</v>
+        <v>7.758521425118301</v>
       </c>
       <c r="H2">
-        <v>0.2145031977514762</v>
+        <v>0.001978845820191802</v>
       </c>
       <c r="I2">
-        <v>667.0968230247564</v>
+        <v>467.2097512137736</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -570,22 +570,22 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>0.2219320066334992</v>
+        <v>0.3665422885572139</v>
       </c>
       <c r="E3">
-        <v>5.724461028192374</v>
+        <v>5.382462686567163</v>
       </c>
       <c r="F3">
-        <v>0.3966415413331798</v>
+        <v>0.5052752249223073</v>
       </c>
       <c r="G3">
-        <v>11.73032364749756</v>
+        <v>10.67079217230148</v>
       </c>
       <c r="H3">
-        <v>0.1683497985407496</v>
+        <v>0.001573923704951847</v>
       </c>
       <c r="I3">
-        <v>329.1782298922487</v>
+        <v>157.8530162966172</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -599,22 +599,22 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>3.148842592592593</v>
+        <v>5.35162037037037</v>
       </c>
       <c r="E4">
         <v>9.775000000000002</v>
       </c>
       <c r="F4">
-        <v>0.3597759374553952</v>
+        <v>0.7842485352343154</v>
       </c>
       <c r="G4">
-        <v>18.01459785928747</v>
+        <v>14.91022003496894</v>
       </c>
       <c r="H4">
-        <v>0.2296802866683313</v>
+        <v>0.002732290328136763</v>
       </c>
       <c r="I4">
-        <v>114.7833325408463</v>
+        <v>68.00263984703088</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -628,22 +628,22 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>1.868611111111111</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="E5">
-        <v>4.727777777777777</v>
+        <v>6.022222222222222</v>
       </c>
       <c r="F5">
-        <v>1.865916773012622</v>
+        <v>2.60270606043279</v>
       </c>
       <c r="G5">
-        <v>45.12020132643337</v>
+        <v>8.219320946845276</v>
       </c>
       <c r="H5">
-        <v>0.1367381729688636</v>
+        <v>4.466092331906311E-47</v>
       </c>
       <c r="I5">
-        <v>15.85810510146202</v>
+        <v>1.770098170121687</v>
       </c>
     </row>
   </sheetData>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.8571820291471475</v>
+        <v>0.8542207734878925</v>
       </c>
       <c r="D2">
-        <v>0.6504466319630029</v>
+        <v>0.8075100101870905</v>
       </c>
       <c r="E2">
-        <v>0.1397954707334627</v>
+        <v>0.2354747483887474</v>
       </c>
       <c r="F2">
-        <v>2.39453723239675</v>
+        <v>1.658774063152853</v>
       </c>
       <c r="G2">
-        <v>0.02841795706590938</v>
+        <v>0.003956020401615445</v>
       </c>
       <c r="H2">
-        <v>619.694887831065</v>
+        <v>626.1338032049349</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1.954582209721116</v>
+        <v>2.064164735796352</v>
       </c>
       <c r="D3">
-        <v>2.754640666345447</v>
+        <v>1.040833284861507</v>
       </c>
       <c r="E3">
-        <v>2.273331134430574</v>
+        <v>0.5337926110646424</v>
       </c>
       <c r="F3">
-        <v>42.36182888418334</v>
+        <v>2.614715368710982</v>
       </c>
       <c r="G3">
-        <v>0.06775403755896021</v>
+        <v>0.002243625153341645</v>
       </c>
       <c r="H3">
-        <v>81.68345038146514</v>
+        <v>107.1570787045752</v>
       </c>
     </row>
   </sheetData>
@@ -784,22 +784,22 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.4176650214687206</v>
+        <v>0.456597990601587</v>
       </c>
       <c r="E2">
-        <v>0.2130523963974698</v>
+        <v>0.3567825202175477</v>
       </c>
       <c r="F2">
-        <v>0.04286242116351226</v>
+        <v>0.06671266928566053</v>
       </c>
       <c r="G2">
-        <v>0.1645102921142492</v>
+        <v>0.2588952838595294</v>
       </c>
       <c r="H2">
-        <v>0.009326732077518744</v>
+        <v>0.004898880099485275</v>
       </c>
       <c r="I2">
-        <v>789.8194392222913</v>
+        <v>811.3451130955325</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -813,22 +813,22 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>0.625300925371889</v>
+        <v>0.6533421217034111</v>
       </c>
       <c r="E3">
-        <v>0.5016420471356491</v>
+        <v>0.7084114317801293</v>
       </c>
       <c r="F3">
-        <v>0.1020158181379437</v>
+        <v>0.3028367728222887</v>
       </c>
       <c r="G3">
-        <v>1.47932918866399</v>
+        <v>1.087013832534771</v>
       </c>
       <c r="H3">
-        <v>0.02149679771825231</v>
+        <v>0.0027070191744428</v>
       </c>
       <c r="I3">
-        <v>296.6903433996373</v>
+        <v>280.6718961298951</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -842,22 +842,22 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>2.132991824232088</v>
+        <v>2.102739401039304</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.107722811759297</v>
+        <v>0.1826061680350002</v>
       </c>
       <c r="G4">
-        <v>2.264400101539799</v>
+        <v>1.923926129262441</v>
       </c>
       <c r="H4">
-        <v>0.008169488179894364</v>
+        <v>0.002205676516474202</v>
       </c>
       <c r="I4">
-        <v>87.95864345558805</v>
+        <v>110.2651213691765</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -869,24 +869,6 @@
       </c>
       <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="D5">
-        <v>1.536303958381193</v>
-      </c>
-      <c r="E5">
-        <v>1.505449064613414</v>
-      </c>
-      <c r="F5">
-        <v>3.26645675810937</v>
-      </c>
-      <c r="G5">
-        <v>61.12017615726971</v>
-      </c>
-      <c r="H5">
-        <v>0.0734476398361644</v>
-      </c>
-      <c r="I5">
-        <v>13.46880641448709</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/summary_stats.xlsx
+++ b/tests/data/summary_stats.xlsx
@@ -453,16 +453,16 @@
         <v>5.968786008230466</v>
       </c>
       <c r="E2">
-        <v>0.5953422158493404</v>
+        <v>0.5953422157319102</v>
       </c>
       <c r="F2">
-        <v>9.203870610757361</v>
+        <v>9.203870611878413</v>
       </c>
       <c r="G2">
-        <v>0.00177788447410975</v>
+        <v>0.001777884484790065</v>
       </c>
       <c r="H2">
-        <v>313.6771494400738</v>
+        <v>313.6771494321041</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -479,16 +479,16 @@
         <v>9.486324786324788</v>
       </c>
       <c r="E3">
-        <v>0.9241298833265058</v>
+        <v>0.9241298895599144</v>
       </c>
       <c r="F3">
-        <v>14.39553548972865</v>
+        <v>14.3955354539765</v>
       </c>
       <c r="G3">
-        <v>0.00252211414904932</v>
+        <v>0.002522114213496266</v>
       </c>
       <c r="H3">
-        <v>62.9078289488071</v>
+        <v>62.90782895069667</v>
       </c>
     </row>
   </sheetData>
@@ -547,16 +547,16 @@
         <v>6.546486928104579</v>
       </c>
       <c r="F2">
-        <v>0.6840846922039171</v>
+        <v>0.6840846921172073</v>
       </c>
       <c r="G2">
-        <v>7.758521425118301</v>
+        <v>7.758521425592693</v>
       </c>
       <c r="H2">
-        <v>0.001978845820191802</v>
+        <v>0.001978845848924245</v>
       </c>
       <c r="I2">
-        <v>467.2097512137736</v>
+        <v>467.2097512025466</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -576,16 +576,16 @@
         <v>5.382462686567163</v>
       </c>
       <c r="F3">
-        <v>0.5052752249223073</v>
+        <v>0.5052752247736984</v>
       </c>
       <c r="G3">
-        <v>10.67079217230148</v>
+        <v>10.67079217407885</v>
       </c>
       <c r="H3">
-        <v>0.001573923704951847</v>
+        <v>0.001573923697310598</v>
       </c>
       <c r="I3">
-        <v>157.8530162966172</v>
+        <v>157.8530162919533</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -605,16 +605,16 @@
         <v>9.775000000000002</v>
       </c>
       <c r="F4">
-        <v>0.7842485352343154</v>
+        <v>0.7842485398425323</v>
       </c>
       <c r="G4">
-        <v>14.91022003496894</v>
+        <v>14.91021999805777</v>
       </c>
       <c r="H4">
-        <v>0.002732290328136763</v>
+        <v>0.002732290397954288</v>
       </c>
       <c r="I4">
-        <v>68.00263984703088</v>
+        <v>68.00263984913909</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -634,16 +634,16 @@
         <v>6.022222222222222</v>
       </c>
       <c r="F5">
-        <v>2.60270606043279</v>
+        <v>2.602706086168499</v>
       </c>
       <c r="G5">
-        <v>8.219320946845276</v>
+        <v>8.219320925001346</v>
       </c>
       <c r="H5">
-        <v>4.466092331906311E-47</v>
+        <v>4.46583576449385E-47</v>
       </c>
       <c r="I5">
-        <v>1.770098170121687</v>
+        <v>1.770098169387669</v>
       </c>
     </row>
   </sheetData>
@@ -696,16 +696,16 @@
         <v>0.8075100101870905</v>
       </c>
       <c r="E2">
-        <v>0.2354747483887474</v>
+        <v>0.2354747485899082</v>
       </c>
       <c r="F2">
-        <v>1.658774063152853</v>
+        <v>1.658774063906705</v>
       </c>
       <c r="G2">
-        <v>0.003956020401615445</v>
+        <v>0.003956020366361637</v>
       </c>
       <c r="H2">
-        <v>626.1338032049349</v>
+        <v>626.1338031449177</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -722,16 +722,16 @@
         <v>1.040833284861507</v>
       </c>
       <c r="E3">
-        <v>0.5337926110646424</v>
+        <v>0.5337926143491155</v>
       </c>
       <c r="F3">
-        <v>2.614715368710982</v>
+        <v>2.614715365192771</v>
       </c>
       <c r="G3">
-        <v>0.002243625153341645</v>
+        <v>0.002243625110524986</v>
       </c>
       <c r="H3">
-        <v>107.1570787045752</v>
+        <v>107.1570786969591</v>
       </c>
     </row>
   </sheetData>
@@ -790,16 +790,16 @@
         <v>0.3567825202175477</v>
       </c>
       <c r="F2">
-        <v>0.06671266928566053</v>
+        <v>0.06671266979626768</v>
       </c>
       <c r="G2">
-        <v>0.2588952838595294</v>
+        <v>0.2588952847358224</v>
       </c>
       <c r="H2">
-        <v>0.004898880099485275</v>
+        <v>0.004898880042546573</v>
       </c>
       <c r="I2">
-        <v>811.3451130955325</v>
+        <v>811.3451130024571</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -819,16 +819,16 @@
         <v>0.7084114317801293</v>
       </c>
       <c r="F3">
-        <v>0.3028367728222887</v>
+        <v>0.3028367730069835</v>
       </c>
       <c r="G3">
-        <v>1.087013832534771</v>
+        <v>1.087013832873503</v>
       </c>
       <c r="H3">
-        <v>0.0027070191744428</v>
+        <v>0.002707019171663058</v>
       </c>
       <c r="I3">
-        <v>280.6718961298951</v>
+        <v>280.6718961348926</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -848,16 +848,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1826061680350002</v>
+        <v>0.1826061608534363</v>
       </c>
       <c r="G4">
-        <v>1.923926129262441</v>
+        <v>1.923926128443523</v>
       </c>
       <c r="H4">
-        <v>0.002205676516474202</v>
+        <v>0.002205676461703863</v>
       </c>
       <c r="I4">
-        <v>110.2651213691765</v>
+        <v>110.2651213609589</v>
       </c>
     </row>
     <row r="5" spans="1:9">
